--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,10 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Bmp7</t>
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H2">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I2">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.050199</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N2">
-        <v>0.100398</v>
+        <v>2.312651</v>
       </c>
       <c r="O2">
-        <v>0.03278033019113316</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="P2">
-        <v>0.02558313640211376</v>
+        <v>0.6900916471389698</v>
       </c>
       <c r="Q2">
-        <v>0.009682157224499999</v>
+        <v>0.1015986128483333</v>
       </c>
       <c r="R2">
-        <v>0.03872862889799999</v>
+        <v>0.60959167709</v>
       </c>
       <c r="S2">
-        <v>0.01957401979565871</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="T2">
-        <v>0.0127150965290524</v>
+        <v>0.6900916471389698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +578,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.131795</v>
+      </c>
+      <c r="H3">
+        <v>0.26359</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.1928755</v>
-      </c>
-      <c r="H3">
-        <v>0.385751</v>
-      </c>
-      <c r="I3">
-        <v>0.5971269868707221</v>
-      </c>
-      <c r="J3">
-        <v>0.4970108562608389</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7708836666666666</v>
+        <v>0.519286</v>
       </c>
       <c r="N3">
-        <v>2.312651</v>
+        <v>1.038572</v>
       </c>
       <c r="O3">
-        <v>0.5033929188287568</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="P3">
-        <v>0.5893032329676366</v>
+        <v>0.3099083528610301</v>
       </c>
       <c r="Q3">
-        <v>0.1486845726501666</v>
+        <v>0.06843929837</v>
       </c>
       <c r="R3">
-        <v>0.8921074359009998</v>
+        <v>0.27375719348</v>
       </c>
       <c r="S3">
-        <v>0.3005894968322735</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="T3">
-        <v>0.2928901044145257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.1928755</v>
-      </c>
-      <c r="H4">
-        <v>0.385751</v>
-      </c>
-      <c r="I4">
-        <v>0.5971269868707221</v>
-      </c>
-      <c r="J4">
-        <v>0.4970108562608389</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.6195459999999999</v>
-      </c>
-      <c r="N4">
-        <v>1.239092</v>
-      </c>
-      <c r="O4">
-        <v>0.4045682672681883</v>
-      </c>
-      <c r="P4">
-        <v>0.3157419435722618</v>
-      </c>
-      <c r="Q4">
-        <v>0.119495244523</v>
-      </c>
-      <c r="R4">
-        <v>0.4779809780919999</v>
-      </c>
-      <c r="S4">
-        <v>0.2415786304173622</v>
-      </c>
-      <c r="T4">
-        <v>0.1569271737323113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.1928755</v>
-      </c>
-      <c r="H5">
-        <v>0.385751</v>
-      </c>
-      <c r="I5">
-        <v>0.5971269868707221</v>
-      </c>
-      <c r="J5">
-        <v>0.4970108562608389</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.09074700000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.272241</v>
-      </c>
-      <c r="O5">
-        <v>0.05925848371192178</v>
-      </c>
-      <c r="P5">
-        <v>0.06937168705798773</v>
-      </c>
-      <c r="Q5">
-        <v>0.0175028729985</v>
-      </c>
-      <c r="R5">
-        <v>0.105017237991</v>
-      </c>
-      <c r="S5">
-        <v>0.03538483982542762</v>
-      </c>
-      <c r="T5">
-        <v>0.03447848158494943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.390391</v>
-      </c>
-      <c r="I6">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J6">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6">
-        <v>0.050199</v>
-      </c>
-      <c r="N6">
-        <v>0.100398</v>
-      </c>
-      <c r="O6">
-        <v>0.03278033019113316</v>
-      </c>
-      <c r="P6">
-        <v>0.02558313640211376</v>
-      </c>
-      <c r="Q6">
-        <v>0.006532412602999999</v>
-      </c>
-      <c r="R6">
-        <v>0.039194475618</v>
-      </c>
-      <c r="S6">
-        <v>0.01320631039547445</v>
-      </c>
-      <c r="T6">
-        <v>0.01286803987306136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.390391</v>
-      </c>
-      <c r="I7">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J7">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.7708836666666666</v>
-      </c>
-      <c r="N7">
-        <v>2.312651</v>
-      </c>
-      <c r="O7">
-        <v>0.5033929188287568</v>
-      </c>
-      <c r="P7">
-        <v>0.5893032329676366</v>
-      </c>
-      <c r="Q7">
-        <v>0.1003153485045555</v>
-      </c>
-      <c r="R7">
-        <v>0.9028381365409999</v>
-      </c>
-      <c r="S7">
-        <v>0.2028034219964832</v>
-      </c>
-      <c r="T7">
-        <v>0.296413128553111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.390391</v>
-      </c>
-      <c r="I8">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J8">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.6195459999999999</v>
-      </c>
-      <c r="N8">
-        <v>1.239092</v>
-      </c>
-      <c r="O8">
-        <v>0.4045682672681883</v>
-      </c>
-      <c r="P8">
-        <v>0.3157419435722618</v>
-      </c>
-      <c r="Q8">
-        <v>0.08062172749533332</v>
-      </c>
-      <c r="R8">
-        <v>0.4837303649719999</v>
-      </c>
-      <c r="S8">
-        <v>0.162989636850826</v>
-      </c>
-      <c r="T8">
-        <v>0.1588147698399505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.390391</v>
-      </c>
-      <c r="I9">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J9">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.09074700000000001</v>
-      </c>
-      <c r="N9">
-        <v>0.272241</v>
-      </c>
-      <c r="O9">
-        <v>0.05925848371192178</v>
-      </c>
-      <c r="P9">
-        <v>0.06937168705798773</v>
-      </c>
-      <c r="Q9">
-        <v>0.011808937359</v>
-      </c>
-      <c r="R9">
-        <v>0.106280436231</v>
-      </c>
-      <c r="S9">
-        <v>0.02387364388649416</v>
-      </c>
-      <c r="T9">
-        <v>0.03489320547303829</v>
+        <v>0.3099083528610301</v>
       </c>
     </row>
   </sheetData>
